--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_18.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15630246.23352109</v>
+        <v>15630246.2335211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5992806.226166058</v>
+        <v>5992806.226166057</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>131.1116955327426</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880641</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.80451202209395</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.3420634549344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>129.3420634549344</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>146.8461210887085</v>
       </c>
-      <c r="D3" t="n">
-        <v>29.2740628632029</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>22.77491242827335</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>77.29308816345811</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>146.8461210887085</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.47835778729023</v>
+        <v>21.41405905276465</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474421</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>166.7824266983284</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="I5" t="n">
         <v>128.238775807139</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>18.66318562874854</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>18.66318562874854</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,67 +972,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.2393225695773</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>133.2368285191687</v>
+      </c>
+      <c r="H6" t="n">
+        <v>101.2126968995411</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60.22693649632167</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19.00792621918454</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>166.7824266983284</v>
       </c>
-      <c r="D6" t="n">
-        <v>147.4450655646388</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.7824266983284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.58848558840407</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.84535296940156</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594768</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>22.00204076308469</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.22084542012617</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
-        <v>39.70122005612006</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>113.7456791730058</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,16 +1224,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>104.8814412733148</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040636</v>
+        <v>38.11163636040592</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402845</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>187.3647038428046</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>312.1036105942814</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>107.438871517719</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>47.7002103969194</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>148.1172474897379</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.3963606457568</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>199.6933674223908</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>322.6856582065105</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.6856582065105</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,19 +1449,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.9135278007857</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>98.87310922232163</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.4008680629421</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8473038334469</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>132.7844958387653</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>99.3935209616487</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.23636975782</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.1172396339466</v>
+        <v>51.11723963394658</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>123.3885090810302</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.24138163843874</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>47.70021039691937</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>148.1172474897379</v>
       </c>
       <c r="T14" t="n">
-        <v>33.08968617420314</v>
+        <v>211.3963606457567</v>
       </c>
       <c r="U14" t="n">
         <v>251.1318415740912</v>
       </c>
       <c r="V14" t="n">
-        <v>322.6856582065105</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="W14" t="n">
-        <v>322.6856582065105</v>
+        <v>271.2471840548105</v>
       </c>
       <c r="X14" t="n">
-        <v>322.6856582065105</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.9135278007857</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.42475749939229</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>50.28809712703552</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>46.74815840784984</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>194.4008680629421</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>17.13612742749931</v>
       </c>
     </row>
     <row r="16">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.11723963394658</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>123.3885090810302</v>
       </c>
       <c r="S16" t="n">
-        <v>192.7471303534153</v>
+        <v>18.24138163843874</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>270.0988207297112</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2207485297974</v>
+        <v>97.56727912491721</v>
       </c>
       <c r="H17" t="n">
         <v>310.0645062935329</v>
@@ -1892,16 +1892,16 @@
         <v>35.19305692132858</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5247698656736</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1159130161457</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.39588629735442</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>90.40800261898144</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>11.38344292483254</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>119.3726927715678</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>146.6350461277835</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>266.0077388993512</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="F20" t="n">
-        <v>112.0425409237</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0645062935329</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.76279989027044</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.19305692132858</v>
+        <v>6.331275036051706</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T20" t="n">
         <v>210.5247698656736</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>76.50413656817294</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8069961776864</v>
+        <v>119.8803617274723</v>
       </c>
       <c r="H21" t="n">
-        <v>97.39588629735442</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.76091780072339</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>266.0077388993513</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>114.7623021012845</v>
       </c>
       <c r="G23" t="n">
         <v>380.2207485297974</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0731378300723</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>35.19305692132858</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.5800973124346</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1159130161457</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>116.7869433081351</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8069961776864</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.39588629735442</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>17.08556843851609</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.6350461277835</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7028117792804</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.3726927715678</v>
       </c>
       <c r="S25" t="n">
-        <v>99.30492712007084</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>380.2207485297974</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>35.19305692132858</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5247698656736</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1159130161457</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>74.70534671926053</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.43868358148631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>151.9558713093565</v>
+        <v>156.4892102151438</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2649,7 +2649,7 @@
         <v>135.8069961776864</v>
       </c>
       <c r="H27" t="n">
-        <v>97.39588629735442</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.28042031887094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>143.142967710438</v>
       </c>
       <c r="T27" t="n">
         <v>193.9714708628182</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.63853279479213</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.87009557552323</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.784552752464321</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>380.2207485297976</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>380.2207485297974</v>
+        <v>380.2207485297976</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>349.8462920638356</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>38.12595664729501</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.89719882184603</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.8069961776864</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0454946857224</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>69.73546987601523</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>116.711762637058</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>35.92197359148581</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.63853279479213</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>64.44038858315095</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.5673503162002</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>166.415890362088</v>
       </c>
       <c r="F32" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>134.8633132907003</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T32" t="n">
         <v>210.5247698656736</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1159130161457</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>380.2207485297974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>123.1899456392627</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.8069961776864</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>97.39588629735442</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.28042031887094</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>143.142967710438</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.8281983101922</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>113.3740026708074</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>116.711762637058</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.92197359148581</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.5673503162002</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>64.44038858315098</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.652898294480829</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>349.8462920638355</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>380.2207485297974</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>124.8167165950274</v>
       </c>
       <c r="E36" t="n">
-        <v>8.468325622451591</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.28042031887094</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.142967710438</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8402951740324</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>64.44038858315098</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.5673503162002</v>
+        <v>43.56613821846819</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.441600680883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>375.3839989729501</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>345.388083156374</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>380.2207485297976</v>
+        <v>380.2207485297974</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>11.99138757470276</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.142967710438</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V39" t="n">
-        <v>79.30490066455239</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>13.87009557552323</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.2335472322431</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7741916671083</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>322.6856582065106</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="G41" t="n">
         <v>322.6856582065106</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>184.458727858024</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.76279989027044</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>322.6856582065106</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>284.2215277482944</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.3560477112331</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.28042031887094</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.142967710438</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U42" t="n">
         <v>225.8402951740324</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>204.1299642341493</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>64.44038858315098</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>99.3049271200711</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7028117792804</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.5673503162002</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>322.6856582065106</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>284.2215277482944</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1159130161457</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.6856582065106</v>
+        <v>212.2111756262248</v>
       </c>
       <c r="Y44" t="n">
-        <v>322.6856582065106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4056,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>158.050681969583</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8069961776864</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>126.3082422384195</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.3726927715678</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>120.5866908764201</v>
+        <v>146.6350461277835</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709668</v>
+        <v>292.5131610218958</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709668</v>
+        <v>144.1837457807761</v>
       </c>
       <c r="I2" t="n">
         <v>11.74768968709668</v>
@@ -4352,28 +4352,28 @@
         <v>587.3844843548341</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548341</v>
+        <v>500.2410732550296</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548341</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548341</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548341</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="V2" t="n">
-        <v>439.0550691137144</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="W2" t="n">
-        <v>290.7256538725946</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="X2" t="n">
-        <v>142.3962386314749</v>
+        <v>440.8425762630155</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.74768968709668</v>
+        <v>440.8425762630155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6518274448591</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>64.32241220373936</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>34.75265173585765</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
         <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616808</v>
+        <v>12.36141687342349</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415665</v>
+        <v>111.9554248488219</v>
       </c>
       <c r="M3" t="n">
         <v>247.5338027825022</v>
@@ -4431,28 +4431,28 @@
         <v>587.3844843548341</v>
       </c>
       <c r="R3" t="n">
-        <v>509.3106579270986</v>
+        <v>587.3844843548341</v>
       </c>
       <c r="S3" t="n">
-        <v>509.3106579270986</v>
+        <v>456.7359354104559</v>
       </c>
       <c r="T3" t="n">
-        <v>509.3106579270986</v>
+        <v>456.7359354104559</v>
       </c>
       <c r="U3" t="n">
-        <v>509.3106579270986</v>
+        <v>308.4065201693361</v>
       </c>
       <c r="V3" t="n">
-        <v>509.3106579270986</v>
+        <v>308.4065201693361</v>
       </c>
       <c r="W3" t="n">
-        <v>509.3106579270986</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="X3" t="n">
-        <v>360.9812426859788</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="Y3" t="n">
-        <v>212.6518274448591</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="C4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="D4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="E4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="F4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="G4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="H4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="I4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="J4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="K4" t="n">
         <v>11.74768968709668</v>
@@ -4501,37 +4501,37 @@
         <v>33.37805236665694</v>
       </c>
       <c r="O4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="P4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="R4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="S4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="T4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="U4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="V4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="W4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="X4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.36219250254136</v>
+        <v>33.37805236665694</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>648.2780041380121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>648.2780041380121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>648.2780041380121</v>
+      </c>
+      <c r="E5" t="n">
+        <v>648.2780041380121</v>
+      </c>
+      <c r="F5" t="n">
+        <v>479.8109064629328</v>
+      </c>
+      <c r="G5" t="n">
         <v>311.3438087878536</v>
-      </c>
-      <c r="C5" t="n">
-        <v>311.3438087878536</v>
-      </c>
-      <c r="D5" t="n">
-        <v>311.3438087878536</v>
-      </c>
-      <c r="E5" t="n">
-        <v>142.8767111127744</v>
-      </c>
-      <c r="F5" t="n">
-        <v>142.8767111127744</v>
-      </c>
-      <c r="G5" t="n">
-        <v>142.8767111127744</v>
       </c>
       <c r="H5" t="n">
         <v>142.8767111127744</v>
@@ -4568,13 +4568,13 @@
         <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>64.08111238184307</v>
+        <v>64.08111238184316</v>
       </c>
       <c r="L5" t="n">
-        <v>163.928492730605</v>
+        <v>163.9284927306051</v>
       </c>
       <c r="M5" t="n">
-        <v>306.6973793432476</v>
+        <v>306.6973793432475</v>
       </c>
       <c r="N5" t="n">
         <v>456.3902241803912</v>
@@ -4589,28 +4589,28 @@
         <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>667.1297067933136</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="S5" t="n">
-        <v>667.1297067933136</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="T5" t="n">
-        <v>667.1297067933136</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="U5" t="n">
-        <v>667.1297067933136</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="V5" t="n">
-        <v>667.1297067933136</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="W5" t="n">
         <v>648.2780041380121</v>
       </c>
       <c r="X5" t="n">
-        <v>479.8109064629328</v>
+        <v>648.2780041380121</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.3438087878536</v>
+        <v>648.2780041380121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>330.7441014721967</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="C6" t="n">
-        <v>162.2770037971175</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="D6" t="n">
-        <v>13.34259413586627</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E6" t="n">
-        <v>13.34259413586627</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="F6" t="n">
-        <v>13.34259413586627</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="G6" t="n">
-        <v>13.34259413586627</v>
+        <v>195.6128563732878</v>
       </c>
       <c r="H6" t="n">
-        <v>13.34259413586627</v>
+        <v>93.37780900001397</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34259413586627</v>
+        <v>32.54251960979006</v>
       </c>
       <c r="J6" t="n">
         <v>13.34259413586627</v>
@@ -4653,16 +4653,16 @@
         <v>167.4993528536691</v>
       </c>
       <c r="M6" t="n">
-        <v>313.0792444295233</v>
+        <v>292.4968843114798</v>
       </c>
       <c r="N6" t="n">
-        <v>450.6888460033935</v>
+        <v>456.3384873466072</v>
       </c>
       <c r="O6" t="n">
-        <v>578.3521085265269</v>
+        <v>584.0017498697406</v>
       </c>
       <c r="P6" t="n">
-        <v>661.4800654500999</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q6" t="n">
         <v>667.1297067933136</v>
@@ -4677,19 +4677,19 @@
         <v>667.1297067933136</v>
       </c>
       <c r="U6" t="n">
-        <v>667.1297067933136</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V6" t="n">
-        <v>667.1297067933136</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="W6" t="n">
-        <v>667.1297067933136</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="X6" t="n">
-        <v>667.1297067933136</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y6" t="n">
-        <v>498.6626091182344</v>
+        <v>330.1955114431552</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>31.36820319586785</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
         <v>13.34259413586627</v>
@@ -4738,37 +4738,37 @@
         <v>50.14445126496287</v>
       </c>
       <c r="O7" t="n">
-        <v>50.14445126496287</v>
+        <v>46.90106502799846</v>
       </c>
       <c r="P7" t="n">
-        <v>50.14445126496287</v>
+        <v>24.67678142892301</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="R7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="S7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="T7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.14445126496287</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C8" t="n">
-        <v>750.1023486652808</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487957</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E8" t="n">
-        <v>520.5803211678664</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>520.5803211678664</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513813</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123837</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985593</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y8" t="n">
-        <v>750.1023486652808</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C9" t="n">
-        <v>750.1023486652808</v>
+        <v>575.6493193841525</v>
       </c>
       <c r="D9" t="n">
-        <v>635.2077232380022</v>
+        <v>426.7149097229012</v>
       </c>
       <c r="E9" t="n">
-        <v>475.9702682325468</v>
+        <v>267.4774547174457</v>
       </c>
       <c r="F9" t="n">
-        <v>329.4357102594317</v>
+        <v>120.9428967443307</v>
       </c>
       <c r="G9" t="n">
-        <v>191.8965290818809</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>90.03616812153773</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017073</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404142</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230187</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170739</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396366</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829027</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="C11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="D11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="E11" t="n">
-        <v>25.81485265652084</v>
+        <v>1101.485356217149</v>
       </c>
       <c r="F11" t="n">
-        <v>25.81485265652084</v>
+        <v>775.5402469176431</v>
       </c>
       <c r="G11" t="n">
-        <v>25.81485265652084</v>
+        <v>449.5951376181374</v>
       </c>
       <c r="H11" t="n">
-        <v>25.81485265652084</v>
+        <v>134.3389653006815</v>
       </c>
       <c r="I11" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J11" t="n">
-        <v>71.14815705746292</v>
+        <v>71.14815705746298</v>
       </c>
       <c r="K11" t="n">
-        <v>189.8295471535858</v>
+        <v>189.829547153586</v>
       </c>
       <c r="L11" t="n">
-        <v>373.966067952153</v>
+        <v>373.9660679521533</v>
       </c>
       <c r="M11" t="n">
-        <v>610.522864093854</v>
+        <v>610.5228640938542</v>
       </c>
       <c r="N11" t="n">
         <v>855.5212048884766</v>
@@ -5063,28 +5063,28 @@
         <v>1290.742632826042</v>
       </c>
       <c r="R11" t="n">
-        <v>1242.560602122083</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="S11" t="n">
-        <v>1092.947220819317</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="T11" t="n">
-        <v>879.415543399361</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="U11" t="n">
-        <v>677.7050712555319</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="V11" t="n">
-        <v>351.7599619560264</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="W11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="X11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.81485265652084</v>
+        <v>1290.742632826042</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.2678819376478</v>
+        <v>617.807667014308</v>
       </c>
       <c r="C12" t="n">
-        <v>25.81485265652084</v>
+        <v>617.807667014308</v>
       </c>
       <c r="D12" t="n">
-        <v>25.81485265652084</v>
+        <v>468.8732573530568</v>
       </c>
       <c r="E12" t="n">
-        <v>25.81485265652084</v>
+        <v>309.6358023476013</v>
       </c>
       <c r="F12" t="n">
-        <v>25.81485265652084</v>
+        <v>163.1012443744862</v>
       </c>
       <c r="G12" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H12" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I12" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J12" t="n">
-        <v>33.99721123650328</v>
+        <v>33.99721123650331</v>
       </c>
       <c r="K12" t="n">
-        <v>126.1369900415176</v>
+        <v>126.1369900415177</v>
       </c>
       <c r="L12" t="n">
-        <v>296.3528345549638</v>
+        <v>296.3528345549639</v>
       </c>
       <c r="M12" t="n">
-        <v>514.3435647117128</v>
+        <v>514.3435647117129</v>
       </c>
       <c r="N12" t="n">
-        <v>752.5125057597963</v>
+        <v>752.5125057597966</v>
       </c>
       <c r="O12" t="n">
-        <v>948.1707615406378</v>
+        <v>948.1707615406382</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.870695098017</v>
+        <v>1085.870695098018</v>
       </c>
       <c r="Q12" t="n">
         <v>1128.000257612399</v>
@@ -5145,25 +5145,25 @@
         <v>1128.000257612399</v>
       </c>
       <c r="S12" t="n">
-        <v>1028.128430115104</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="T12" t="n">
-        <v>831.763916920213</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="U12" t="n">
-        <v>603.6353271894586</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="V12" t="n">
-        <v>368.4832189577158</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="W12" t="n">
-        <v>368.4832189577158</v>
+        <v>993.8745042399089</v>
       </c>
       <c r="X12" t="n">
-        <v>368.4832189577158</v>
+        <v>786.0230040343761</v>
       </c>
       <c r="Y12" t="n">
-        <v>368.4832189577158</v>
+        <v>786.0230040343761</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="C13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="D13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="E13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="F13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I13" t="n">
-        <v>68.47785241189457</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J13" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="K13" t="n">
-        <v>35.98403434371461</v>
+        <v>35.98403434371465</v>
       </c>
       <c r="L13" t="n">
-        <v>78.9028834788172</v>
+        <v>78.90288347881727</v>
       </c>
       <c r="M13" t="n">
-        <v>127.4130752392703</v>
+        <v>127.4130752392704</v>
       </c>
       <c r="N13" t="n">
-        <v>182.6273289712176</v>
+        <v>182.6273289712178</v>
       </c>
       <c r="O13" t="n">
-        <v>213.313540060984</v>
+        <v>213.3135400609842</v>
       </c>
       <c r="P13" t="n">
-        <v>220.5089237205767</v>
+        <v>220.5089237205769</v>
       </c>
       <c r="Q13" t="n">
-        <v>168.8753483327519</v>
+        <v>168.8753483327521</v>
       </c>
       <c r="R13" t="n">
-        <v>168.8753483327519</v>
+        <v>44.24049067514584</v>
       </c>
       <c r="S13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="T13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="U13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="V13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="W13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="X13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.8753483327519</v>
+        <v>25.81485265652085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="C14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="D14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="E14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="F14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J14" t="n">
-        <v>71.14815705746298</v>
+        <v>71.14815705746297</v>
       </c>
       <c r="K14" t="n">
-        <v>189.829547153586</v>
+        <v>189.8295471535859</v>
       </c>
       <c r="L14" t="n">
-        <v>373.9660679521532</v>
+        <v>373.9660679521533</v>
       </c>
       <c r="M14" t="n">
-        <v>610.522864093854</v>
+        <v>610.5228640938544</v>
       </c>
       <c r="N14" t="n">
-        <v>855.5212048884766</v>
+        <v>855.5212048884773</v>
       </c>
       <c r="O14" t="n">
-        <v>1073.530929518375</v>
+        <v>1073.530929518376</v>
       </c>
       <c r="P14" t="n">
-        <v>1225.096184797799</v>
+        <v>1225.0961847978</v>
       </c>
       <c r="Q14" t="n">
         <v>1290.742632826042</v>
       </c>
       <c r="R14" t="n">
-        <v>1290.742632826042</v>
+        <v>1242.560602122083</v>
       </c>
       <c r="S14" t="n">
-        <v>1290.742632826042</v>
+        <v>1092.947220819318</v>
       </c>
       <c r="T14" t="n">
-        <v>1257.318707397554</v>
+        <v>879.4155433993616</v>
       </c>
       <c r="U14" t="n">
-        <v>1003.650180555037</v>
+        <v>625.7470165568452</v>
       </c>
       <c r="V14" t="n">
-        <v>677.7050712555319</v>
+        <v>299.8019072573396</v>
       </c>
       <c r="W14" t="n">
-        <v>351.7599619560264</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="X14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>508.4397466043546</v>
+        <v>942.4757009685944</v>
       </c>
       <c r="C15" t="n">
-        <v>333.9867173232276</v>
+        <v>768.0226716874674</v>
       </c>
       <c r="D15" t="n">
-        <v>185.0523076619763</v>
+        <v>619.0882620262162</v>
       </c>
       <c r="E15" t="n">
-        <v>25.81485265652084</v>
+        <v>459.8508070207606</v>
       </c>
       <c r="F15" t="n">
-        <v>25.81485265652084</v>
+        <v>313.3162490476456</v>
       </c>
       <c r="G15" t="n">
-        <v>25.81485265652084</v>
+        <v>176.0298573296803</v>
       </c>
       <c r="H15" t="n">
-        <v>25.81485265652084</v>
+        <v>76.61091036059713</v>
       </c>
       <c r="I15" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J15" t="n">
-        <v>33.99721123650328</v>
+        <v>33.99721123650331</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1369900415176</v>
+        <v>126.1369900415177</v>
       </c>
       <c r="L15" t="n">
-        <v>296.3528345549638</v>
+        <v>296.3528345549639</v>
       </c>
       <c r="M15" t="n">
-        <v>514.3435647117128</v>
+        <v>514.3435647117129</v>
       </c>
       <c r="N15" t="n">
-        <v>752.5125057597963</v>
+        <v>752.5125057597966</v>
       </c>
       <c r="O15" t="n">
-        <v>948.1707615406378</v>
+        <v>948.1707615406382</v>
       </c>
       <c r="P15" t="n">
-        <v>1085.870695098017</v>
+        <v>1085.870695098018</v>
       </c>
       <c r="Q15" t="n">
         <v>1128.000257612399</v>
@@ -5382,25 +5382,25 @@
         <v>1128.000257612399</v>
       </c>
       <c r="S15" t="n">
-        <v>1080.779895584267</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="T15" t="n">
-        <v>884.4153823893764</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="U15" t="n">
-        <v>884.4153823893764</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="V15" t="n">
-        <v>884.4153823893764</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="W15" t="n">
-        <v>884.4153823893764</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="X15" t="n">
-        <v>884.4153823893764</v>
+        <v>1128.000257612399</v>
       </c>
       <c r="Y15" t="n">
-        <v>676.6550836244226</v>
+        <v>1110.691037988662</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="C16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="D16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="E16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="F16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="K16" t="n">
-        <v>35.98403434371461</v>
+        <v>35.98403434371465</v>
       </c>
       <c r="L16" t="n">
-        <v>78.9028834788172</v>
+        <v>78.90288347881727</v>
       </c>
       <c r="M16" t="n">
-        <v>127.4130752392703</v>
+        <v>127.4130752392704</v>
       </c>
       <c r="N16" t="n">
-        <v>182.6273289712176</v>
+        <v>182.6273289712178</v>
       </c>
       <c r="O16" t="n">
-        <v>213.313540060984</v>
+        <v>213.3135400609842</v>
       </c>
       <c r="P16" t="n">
-        <v>220.5089237205767</v>
+        <v>220.5089237205769</v>
       </c>
       <c r="Q16" t="n">
-        <v>220.5089237205767</v>
+        <v>168.8753483327521</v>
       </c>
       <c r="R16" t="n">
-        <v>220.5089237205767</v>
+        <v>44.24049067514584</v>
       </c>
       <c r="S16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="T16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="U16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="V16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="W16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="X16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.81485265652084</v>
+        <v>25.81485265652085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="C17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="D17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.507360128241</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="F17" t="n">
-        <v>828.4459979769301</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="G17" t="n">
         <v>444.3846358256195</v>
@@ -5513,16 +5513,16 @@
         <v>30.41765988238379</v>
       </c>
       <c r="J17" t="n">
-        <v>92.48093028935043</v>
+        <v>92.48093028935023</v>
       </c>
       <c r="K17" t="n">
-        <v>236.2362026322085</v>
+        <v>236.2362026322084</v>
       </c>
       <c r="L17" t="n">
-        <v>451.479091542185</v>
+        <v>451.4790915421849</v>
       </c>
       <c r="M17" t="n">
-        <v>722.6477157633022</v>
+        <v>722.647715763302</v>
       </c>
       <c r="N17" t="n">
         <v>1002.817940201218</v>
@@ -5540,25 +5540,25 @@
         <v>1485.334451774414</v>
       </c>
       <c r="S17" t="n">
-        <v>1485.334451774414</v>
+        <v>1340.304050448722</v>
       </c>
       <c r="T17" t="n">
-        <v>1485.334451774414</v>
+        <v>1127.652767756122</v>
       </c>
       <c r="U17" t="n">
-        <v>1485.334451774414</v>
+        <v>874.0003303660762</v>
       </c>
       <c r="V17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="X17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
       <c r="Y17" t="n">
-        <v>1485.334451774414</v>
+        <v>542.9374430225056</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>424.2663106453909</v>
+        <v>236.7462583560064</v>
       </c>
       <c r="C18" t="n">
-        <v>424.2663106453909</v>
+        <v>236.7462583560064</v>
       </c>
       <c r="D18" t="n">
-        <v>275.3319009841397</v>
+        <v>236.7462583560064</v>
       </c>
       <c r="E18" t="n">
-        <v>275.3319009841397</v>
+        <v>77.50880335055092</v>
       </c>
       <c r="F18" t="n">
-        <v>128.7973430110246</v>
+        <v>77.50880335055092</v>
       </c>
       <c r="G18" t="n">
-        <v>128.7973430110246</v>
+        <v>77.50880335055092</v>
       </c>
       <c r="H18" t="n">
-        <v>30.41765988238379</v>
+        <v>77.50880335055092</v>
       </c>
       <c r="I18" t="n">
         <v>30.41765988238379</v>
@@ -5619,25 +5619,25 @@
         <v>1295.345440051905</v>
       </c>
       <c r="S18" t="n">
-        <v>1204.024225285257</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="T18" t="n">
-        <v>1008.093446635946</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="U18" t="n">
-        <v>1008.093446635946</v>
+        <v>1067.223929775104</v>
       </c>
       <c r="V18" t="n">
-        <v>1008.093446635946</v>
+        <v>832.0718215433617</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.093446635946</v>
+        <v>820.5733943465611</v>
       </c>
       <c r="X18" t="n">
-        <v>800.2419464304128</v>
+        <v>612.7218941410283</v>
       </c>
       <c r="Y18" t="n">
-        <v>592.4816476654589</v>
+        <v>404.9615953760745</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5695,19 @@
         <v>299.1123456393042</v>
       </c>
       <c r="R19" t="n">
-        <v>299.1123456393042</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="S19" t="n">
-        <v>299.1123456393042</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="T19" t="n">
-        <v>299.1123456393042</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="U19" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="V19" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="W19" t="n">
         <v>30.41765988238379</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>941.6202817382433</v>
+        <v>772.7447206404449</v>
       </c>
       <c r="C20" t="n">
-        <v>941.6202817382433</v>
+        <v>772.7447206404449</v>
       </c>
       <c r="D20" t="n">
-        <v>941.6202817382433</v>
+        <v>414.4790220336944</v>
       </c>
       <c r="E20" t="n">
-        <v>941.6202817382433</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F20" t="n">
-        <v>828.4459979769301</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G20" t="n">
-        <v>444.3846358256195</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H20" t="n">
-        <v>131.1881648220509</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I20" t="n">
         <v>30.41765988238379</v>
@@ -5774,28 +5774,28 @@
         <v>1520.88299411919</v>
       </c>
       <c r="R20" t="n">
-        <v>1485.334451774414</v>
+        <v>1514.487766810047</v>
       </c>
       <c r="S20" t="n">
-        <v>1485.334451774414</v>
+        <v>1369.457365484355</v>
       </c>
       <c r="T20" t="n">
-        <v>1272.683169081814</v>
+        <v>1156.806082791755</v>
       </c>
       <c r="U20" t="n">
-        <v>1272.683169081814</v>
+        <v>1156.806082791755</v>
       </c>
       <c r="V20" t="n">
-        <v>941.6202817382433</v>
+        <v>1156.806082791755</v>
       </c>
       <c r="W20" t="n">
-        <v>941.6202817382433</v>
+        <v>1156.806082791755</v>
       </c>
       <c r="X20" t="n">
-        <v>941.6202817382433</v>
+        <v>1156.806082791755</v>
       </c>
       <c r="Y20" t="n">
-        <v>941.6202817382433</v>
+        <v>1156.806082791755</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>390.3441761214739</v>
+        <v>457.2809473331486</v>
       </c>
       <c r="C21" t="n">
-        <v>390.3441761214739</v>
+        <v>457.2809473331486</v>
       </c>
       <c r="D21" t="n">
-        <v>390.3441761214739</v>
+        <v>457.2809473331486</v>
       </c>
       <c r="E21" t="n">
-        <v>390.3441761214739</v>
+        <v>298.0434923276931</v>
       </c>
       <c r="F21" t="n">
-        <v>313.0672704970568</v>
+        <v>151.5089343545781</v>
       </c>
       <c r="G21" t="n">
-        <v>175.8884864791918</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H21" t="n">
-        <v>77.50880335055092</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I21" t="n">
         <v>30.41765988238379</v>
@@ -5865,16 +5865,16 @@
         <v>1295.345440051905</v>
       </c>
       <c r="V21" t="n">
-        <v>1060.193331820162</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="W21" t="n">
-        <v>805.9559750919607</v>
+        <v>1041.108083323703</v>
       </c>
       <c r="X21" t="n">
-        <v>598.1044748864279</v>
+        <v>833.2565831181705</v>
       </c>
       <c r="Y21" t="n">
-        <v>390.3441761214739</v>
+        <v>625.4962843532167</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.3538428102907</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="C22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="D22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="E22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="F22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="G22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="H22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="I22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="J22" t="n">
-        <v>30.41765988238379</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="K22" t="n">
-        <v>50.85956925064912</v>
+        <v>1272.630217730534</v>
       </c>
       <c r="L22" t="n">
-        <v>106.9239730411699</v>
+        <v>1328.694621521055</v>
       </c>
       <c r="M22" t="n">
-        <v>169.2943090429936</v>
+        <v>1391.064957522879</v>
       </c>
       <c r="N22" t="n">
-        <v>238.0391437651974</v>
+        <v>1459.809792245083</v>
       </c>
       <c r="O22" t="n">
-        <v>281.2230363874599</v>
+        <v>1502.993684867345</v>
       </c>
       <c r="P22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="Q22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="R22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="S22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="T22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="U22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="V22" t="n">
-        <v>299.1123456393042</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="W22" t="n">
-        <v>299.1123456393042</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="X22" t="n">
-        <v>299.1123456393042</v>
+        <v>1252.188308362269</v>
       </c>
       <c r="Y22" t="n">
-        <v>299.1123456393042</v>
+        <v>1252.188308362269</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>956.2426882974114</v>
+        <v>530.4005393077191</v>
       </c>
       <c r="C23" t="n">
-        <v>587.2801713569997</v>
+        <v>530.4005393077191</v>
       </c>
       <c r="D23" t="n">
-        <v>587.2801713569997</v>
+        <v>530.4005393077191</v>
       </c>
       <c r="E23" t="n">
-        <v>587.2801713569997</v>
+        <v>530.4005393077191</v>
       </c>
       <c r="F23" t="n">
-        <v>587.2801713569997</v>
+        <v>414.4790220336944</v>
       </c>
       <c r="G23" t="n">
-        <v>203.2188092056892</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H23" t="n">
         <v>30.41765988238379</v>
@@ -6011,28 +6011,28 @@
         <v>1520.88299411919</v>
       </c>
       <c r="R23" t="n">
-        <v>1485.334451774414</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="S23" t="n">
-        <v>1340.304050448722</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="T23" t="n">
-        <v>1340.304050448722</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="U23" t="n">
-        <v>1340.304050448722</v>
+        <v>1267.230556729144</v>
       </c>
       <c r="V23" t="n">
-        <v>1340.304050448722</v>
+        <v>1267.230556729144</v>
       </c>
       <c r="W23" t="n">
-        <v>1340.304050448722</v>
+        <v>914.4619014590296</v>
       </c>
       <c r="X23" t="n">
-        <v>1340.304050448722</v>
+        <v>914.4619014590296</v>
       </c>
       <c r="Y23" t="n">
-        <v>956.2426882974114</v>
+        <v>914.4619014590296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>942.2267224180056</v>
+        <v>204.8706891635108</v>
       </c>
       <c r="C24" t="n">
-        <v>767.7736931368786</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="D24" t="n">
-        <v>618.8392834756273</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="E24" t="n">
-        <v>459.6018284701719</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F24" t="n">
-        <v>313.0672704970568</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G24" t="n">
-        <v>175.8884864791918</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H24" t="n">
-        <v>77.50880335055092</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I24" t="n">
         <v>30.41765988238379</v>
@@ -6099,19 +6099,19 @@
         <v>1295.345440051905</v>
       </c>
       <c r="U24" t="n">
-        <v>1295.345440051905</v>
+        <v>1278.08729011401</v>
       </c>
       <c r="V24" t="n">
-        <v>1060.193331820162</v>
+        <v>1042.935181882267</v>
       </c>
       <c r="W24" t="n">
-        <v>1060.193331820162</v>
+        <v>788.6978251540656</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.193331820162</v>
+        <v>580.8463249485328</v>
       </c>
       <c r="Y24" t="n">
-        <v>1060.193331820162</v>
+        <v>373.0860261835788</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="C25" t="n">
-        <v>198.8043384473135</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="D25" t="n">
-        <v>198.8043384473135</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="E25" t="n">
-        <v>198.8043384473135</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F25" t="n">
-        <v>198.8043384473135</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G25" t="n">
         <v>30.41765988238379</v>
@@ -6169,28 +6169,28 @@
         <v>299.1123456393042</v>
       </c>
       <c r="R25" t="n">
-        <v>299.1123456393042</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="S25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="T25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="U25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="V25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="W25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="X25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.8043384473135</v>
+        <v>178.5338680922661</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>757.6458754295461</v>
+        <v>414.4790220336944</v>
       </c>
       <c r="C26" t="n">
-        <v>388.6833584891343</v>
+        <v>414.4790220336944</v>
       </c>
       <c r="D26" t="n">
-        <v>30.41765988238379</v>
+        <v>414.4790220336944</v>
       </c>
       <c r="E26" t="n">
         <v>30.41765988238379</v>
@@ -6230,10 +6230,10 @@
         <v>236.2362026322086</v>
       </c>
       <c r="L26" t="n">
-        <v>451.479091542185</v>
+        <v>451.4790915421847</v>
       </c>
       <c r="M26" t="n">
-        <v>722.6477157633019</v>
+        <v>722.647715763302</v>
       </c>
       <c r="N26" t="n">
         <v>1002.817940201218</v>
@@ -6248,28 +6248,28 @@
         <v>1520.88299411919</v>
       </c>
       <c r="R26" t="n">
-        <v>1485.334451774413</v>
+        <v>1485.334451774414</v>
       </c>
       <c r="S26" t="n">
-        <v>1485.334451774413</v>
+        <v>1340.304050448722</v>
       </c>
       <c r="T26" t="n">
-        <v>1485.334451774413</v>
+        <v>1127.652767756122</v>
       </c>
       <c r="U26" t="n">
-        <v>1485.334451774413</v>
+        <v>874.0003303660762</v>
       </c>
       <c r="V26" t="n">
-        <v>1154.271564430843</v>
+        <v>798.540384185005</v>
       </c>
       <c r="W26" t="n">
-        <v>1154.271564430843</v>
+        <v>798.540384185005</v>
       </c>
       <c r="X26" t="n">
-        <v>1154.271564430843</v>
+        <v>798.540384185005</v>
       </c>
       <c r="Y26" t="n">
-        <v>1141.707237580857</v>
+        <v>798.540384185005</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>895.1355789498385</v>
+        <v>796.7558958211977</v>
       </c>
       <c r="C27" t="n">
-        <v>720.6825496687115</v>
+        <v>622.3028665400707</v>
       </c>
       <c r="D27" t="n">
-        <v>571.7481400074603</v>
+        <v>473.3684568788194</v>
       </c>
       <c r="E27" t="n">
-        <v>412.5106850020047</v>
+        <v>314.1310018733639</v>
       </c>
       <c r="F27" t="n">
-        <v>265.9761270288897</v>
+        <v>167.5964439002488</v>
       </c>
       <c r="G27" t="n">
-        <v>128.7973430110246</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H27" t="n">
         <v>30.41765988238379</v>
@@ -6327,28 +6327,28 @@
         <v>1295.345440051905</v>
       </c>
       <c r="R27" t="n">
-        <v>1244.55713669951</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="S27" t="n">
-        <v>1244.55713669951</v>
+        <v>1150.756583778735</v>
       </c>
       <c r="T27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="U27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="V27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="W27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="X27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="Y27" t="n">
-        <v>1048.626358050199</v>
+        <v>954.8258051294238</v>
       </c>
     </row>
     <row r="28">
@@ -6403,28 +6403,28 @@
         <v>299.1123456393042</v>
       </c>
       <c r="Q28" t="n">
-        <v>255.0330195839587</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="R28" t="n">
-        <v>255.0330195839587</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="S28" t="n">
-        <v>255.0330195839587</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="T28" t="n">
-        <v>255.0330195839587</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="U28" t="n">
-        <v>255.0330195839587</v>
+        <v>285.1021480882707</v>
       </c>
       <c r="V28" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="W28" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="X28" t="n">
-        <v>251.2102390259139</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="Y28" t="n">
         <v>30.41765988238379</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>837.0514515055049</v>
+        <v>1136.82163196788</v>
       </c>
       <c r="C29" t="n">
-        <v>837.0514515055049</v>
+        <v>767.8591150274679</v>
       </c>
       <c r="D29" t="n">
-        <v>837.0514515055049</v>
+        <v>767.8591150274679</v>
       </c>
       <c r="E29" t="n">
-        <v>452.9900893541944</v>
+        <v>383.7977528761572</v>
       </c>
       <c r="F29" t="n">
-        <v>452.9900893541944</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="G29" t="n">
-        <v>68.92872720288381</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="H29" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="I29" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="J29" t="n">
-        <v>92.48093028935048</v>
+        <v>92.48093028935045</v>
       </c>
       <c r="K29" t="n">
-        <v>236.2362026322086</v>
+        <v>236.2362026322089</v>
       </c>
       <c r="L29" t="n">
-        <v>451.4790915421847</v>
+        <v>451.4790915421855</v>
       </c>
       <c r="M29" t="n">
-        <v>722.647715763302</v>
+        <v>722.6477157633027</v>
       </c>
       <c r="N29" t="n">
-        <v>1002.817940201218</v>
+        <v>1002.817940201219</v>
       </c>
       <c r="O29" t="n">
         <v>1254.039477198281</v>
@@ -6497,16 +6497,16 @@
         <v>1520.88299411919</v>
       </c>
       <c r="V29" t="n">
-        <v>1189.820106775619</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="W29" t="n">
-        <v>837.0514515055049</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="X29" t="n">
-        <v>837.0514515055049</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="Y29" t="n">
-        <v>837.0514515055049</v>
+        <v>1520.88299411919</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353.8050988247621</v>
+        <v>475.7683085669556</v>
       </c>
       <c r="C30" t="n">
-        <v>179.3520695436351</v>
+        <v>475.7683085669556</v>
       </c>
       <c r="D30" t="n">
-        <v>30.41765988238379</v>
+        <v>326.8338989057044</v>
       </c>
       <c r="E30" t="n">
-        <v>30.41765988238379</v>
+        <v>167.5964439002489</v>
       </c>
       <c r="F30" t="n">
-        <v>30.41765988238379</v>
+        <v>167.5964439002489</v>
       </c>
       <c r="G30" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="H30" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="I30" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="J30" t="n">
-        <v>48.56427160381344</v>
+        <v>48.56427160381345</v>
       </c>
       <c r="K30" t="n">
         <v>157.7345461104508</v>
@@ -6570,22 +6570,22 @@
         <v>1295.345440051905</v>
       </c>
       <c r="T30" t="n">
-        <v>1099.414661402594</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="U30" t="n">
-        <v>1099.414661402594</v>
+        <v>1067.223929775104</v>
       </c>
       <c r="V30" t="n">
-        <v>864.2625531708509</v>
+        <v>832.0718215433617</v>
       </c>
       <c r="W30" t="n">
-        <v>864.2625531708509</v>
+        <v>577.8344648151601</v>
       </c>
       <c r="X30" t="n">
-        <v>656.411052965318</v>
+        <v>475.7683085669556</v>
       </c>
       <c r="Y30" t="n">
-        <v>448.6507542003641</v>
+        <v>475.7683085669556</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="C31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="D31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="E31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="F31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="G31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="H31" t="n">
-        <v>184.5931510223271</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.70248169196543</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="J31" t="n">
-        <v>30.41765988238379</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="K31" t="n">
-        <v>50.85956925064912</v>
+        <v>50.85956925064913</v>
       </c>
       <c r="L31" t="n">
         <v>106.9239730411699</v>
@@ -6640,31 +6640,31 @@
         <v>299.1123456393042</v>
       </c>
       <c r="Q31" t="n">
-        <v>255.0330195839587</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="R31" t="n">
-        <v>255.0330195839587</v>
+        <v>234.0210440401619</v>
       </c>
       <c r="S31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="T31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="U31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="V31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="W31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="X31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
       <c r="Y31" t="n">
-        <v>255.0330195839587</v>
+        <v>30.41765988238381</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>414.4790220336944</v>
+        <v>556.7802174407384</v>
       </c>
       <c r="C32" t="n">
-        <v>414.4790220336944</v>
+        <v>556.7802174407384</v>
       </c>
       <c r="D32" t="n">
-        <v>414.4790220336944</v>
+        <v>198.5145188339879</v>
       </c>
       <c r="E32" t="n">
-        <v>414.4790220336944</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F32" t="n">
         <v>30.41765988238379</v>
@@ -6698,16 +6698,16 @@
         <v>30.41765988238379</v>
       </c>
       <c r="J32" t="n">
-        <v>92.48093028935</v>
+        <v>92.48093028935023</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2362026322082</v>
+        <v>236.2362026322084</v>
       </c>
       <c r="L32" t="n">
-        <v>451.4790915421846</v>
+        <v>451.4790915421849</v>
       </c>
       <c r="M32" t="n">
-        <v>722.6477157633019</v>
+        <v>722.647715763302</v>
       </c>
       <c r="N32" t="n">
         <v>1002.817940201218</v>
@@ -6725,25 +6725,25 @@
         <v>1520.88299411919</v>
       </c>
       <c r="S32" t="n">
-        <v>1384.657425138684</v>
+        <v>1375.852592793498</v>
       </c>
       <c r="T32" t="n">
-        <v>1172.006142446085</v>
+        <v>1163.201310100899</v>
       </c>
       <c r="U32" t="n">
-        <v>1172.006142446085</v>
+        <v>909.5488727108525</v>
       </c>
       <c r="V32" t="n">
-        <v>1172.006142446085</v>
+        <v>909.5488727108525</v>
       </c>
       <c r="W32" t="n">
-        <v>1172.006142446085</v>
+        <v>556.7802174407384</v>
       </c>
       <c r="X32" t="n">
-        <v>798.540384185005</v>
+        <v>556.7802174407384</v>
       </c>
       <c r="Y32" t="n">
-        <v>414.4790220336944</v>
+        <v>556.7802174407384</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>892.2079816613864</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="C33" t="n">
-        <v>767.7736931368786</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="D33" t="n">
-        <v>618.8392834756273</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="E33" t="n">
-        <v>459.6018284701719</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F33" t="n">
-        <v>313.0672704970568</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G33" t="n">
-        <v>175.8884864791918</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H33" t="n">
-        <v>77.50880335055092</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I33" t="n">
         <v>30.41765988238379</v>
@@ -6801,28 +6801,28 @@
         <v>1295.345440051905</v>
       </c>
       <c r="R33" t="n">
-        <v>1244.55713669951</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="S33" t="n">
-        <v>1099.96828042634</v>
+        <v>1150.756583778735</v>
       </c>
       <c r="T33" t="n">
-        <v>1099.96828042634</v>
+        <v>954.8258051294238</v>
       </c>
       <c r="U33" t="n">
-        <v>1099.96828042634</v>
+        <v>726.7042948526233</v>
       </c>
       <c r="V33" t="n">
-        <v>1099.96828042634</v>
+        <v>491.5521866208806</v>
       </c>
       <c r="W33" t="n">
-        <v>1099.96828042634</v>
+        <v>237.314829892679</v>
       </c>
       <c r="X33" t="n">
-        <v>1099.96828042634</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="Y33" t="n">
-        <v>892.2079816613864</v>
+        <v>30.41765988238379</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="C34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="D34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="E34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H34" t="n">
-        <v>184.5931510223271</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I34" t="n">
-        <v>66.70248169196543</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="J34" t="n">
         <v>30.41765988238379</v>
@@ -6883,25 +6883,25 @@
         <v>299.1123456393042</v>
       </c>
       <c r="S34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="T34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="U34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="V34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="W34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="X34" t="n">
-        <v>299.1123456393042</v>
+        <v>95.5089614815262</v>
       </c>
       <c r="Y34" t="n">
-        <v>299.1123456393042</v>
+        <v>30.41765988238379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>757.6458754295461</v>
+        <v>752.7602698165688</v>
       </c>
       <c r="C35" t="n">
-        <v>388.6833584891343</v>
+        <v>383.7977528761571</v>
       </c>
       <c r="D35" t="n">
-        <v>30.41765988238379</v>
+        <v>383.7977528761571</v>
       </c>
       <c r="E35" t="n">
         <v>30.41765988238379</v>
@@ -6977,10 +6977,10 @@
         <v>1520.88299411919</v>
       </c>
       <c r="X35" t="n">
-        <v>1147.41723585811</v>
+        <v>1520.88299411919</v>
       </c>
       <c r="Y35" t="n">
-        <v>763.3558737067995</v>
+        <v>1136.821631967879</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>468.1556927352745</v>
+        <v>919.369804266883</v>
       </c>
       <c r="C36" t="n">
-        <v>468.1556927352745</v>
+        <v>744.916774985756</v>
       </c>
       <c r="D36" t="n">
-        <v>468.1556927352745</v>
+        <v>618.8392834756273</v>
       </c>
       <c r="E36" t="n">
         <v>459.6018284701719</v>
@@ -7038,28 +7038,28 @@
         <v>1295.345440051905</v>
       </c>
       <c r="R36" t="n">
-        <v>1244.55713669951</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="S36" t="n">
-        <v>1099.96828042634</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="T36" t="n">
-        <v>904.0375017770289</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="U36" t="n">
-        <v>675.9159915002284</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="V36" t="n">
-        <v>675.9159915002284</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="W36" t="n">
-        <v>675.9159915002284</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="X36" t="n">
-        <v>675.9159915002284</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="Y36" t="n">
-        <v>468.1556927352745</v>
+        <v>1087.585141286951</v>
       </c>
     </row>
     <row r="37">
@@ -7117,10 +7117,10 @@
         <v>299.1123456393042</v>
       </c>
       <c r="R37" t="n">
-        <v>234.0210440401618</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="S37" t="n">
-        <v>30.41765988238379</v>
+        <v>255.1061454186293</v>
       </c>
       <c r="T37" t="n">
         <v>30.41765988238379</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>757.6458754295461</v>
+        <v>379.2945115554889</v>
       </c>
       <c r="C38" t="n">
-        <v>388.6833584891343</v>
+        <v>379.2945115554889</v>
       </c>
       <c r="D38" t="n">
-        <v>30.41765988238381</v>
+        <v>379.2945115554889</v>
       </c>
       <c r="E38" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F38" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G38" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H38" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I38" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="J38" t="n">
-        <v>92.48093028935045</v>
+        <v>92.48093028935043</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2362026322089</v>
+        <v>236.2362026322085</v>
       </c>
       <c r="L38" t="n">
-        <v>451.4790915421855</v>
+        <v>451.479091542185</v>
       </c>
       <c r="M38" t="n">
-        <v>722.6477157633027</v>
+        <v>722.6477157633022</v>
       </c>
       <c r="N38" t="n">
-        <v>1002.817940201219</v>
+        <v>1002.817940201218</v>
       </c>
       <c r="O38" t="n">
         <v>1254.039477198281</v>
@@ -7214,10 +7214,10 @@
         <v>1520.88299411919</v>
       </c>
       <c r="X38" t="n">
-        <v>1520.88299411919</v>
+        <v>1147.41723585811</v>
       </c>
       <c r="Y38" t="n">
-        <v>1136.82163196788</v>
+        <v>763.3558737067995</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>204.8706891635108</v>
+        <v>201.7676275895593</v>
       </c>
       <c r="C39" t="n">
-        <v>30.41765988238381</v>
+        <v>189.6551148878393</v>
       </c>
       <c r="D39" t="n">
-        <v>30.41765988238381</v>
+        <v>189.6551148878393</v>
       </c>
       <c r="E39" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F39" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G39" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H39" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I39" t="n">
-        <v>30.41765988238381</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="J39" t="n">
-        <v>48.56427160381345</v>
+        <v>48.56427160381344</v>
       </c>
       <c r="K39" t="n">
         <v>157.7345461104508</v>
@@ -7278,25 +7278,25 @@
         <v>1295.345440051905</v>
       </c>
       <c r="S39" t="n">
-        <v>1150.756583778735</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="T39" t="n">
-        <v>954.8258051294238</v>
+        <v>1295.345440051905</v>
       </c>
       <c r="U39" t="n">
-        <v>954.8258051294238</v>
+        <v>1067.223929775104</v>
       </c>
       <c r="V39" t="n">
-        <v>874.7198448621991</v>
+        <v>832.0718215433617</v>
       </c>
       <c r="W39" t="n">
-        <v>620.4824881339975</v>
+        <v>577.8344648151601</v>
       </c>
       <c r="X39" t="n">
-        <v>412.6309879284647</v>
+        <v>369.9829646096273</v>
       </c>
       <c r="Y39" t="n">
-        <v>204.8706891635108</v>
+        <v>369.9829646096273</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1520.88299411919</v>
+        <v>44.42785743341736</v>
       </c>
       <c r="C40" t="n">
-        <v>1520.88299411919</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="D40" t="n">
-        <v>1520.88299411919</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="E40" t="n">
-        <v>1520.88299411919</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="F40" t="n">
-        <v>1404.485471662379</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="G40" t="n">
-        <v>1404.485471662379</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="H40" t="n">
-        <v>1252.18830836227</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="I40" t="n">
-        <v>1252.18830836227</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="J40" t="n">
-        <v>1252.18830836227</v>
+        <v>30.41765988238379</v>
       </c>
       <c r="K40" t="n">
-        <v>1272.630217730535</v>
+        <v>50.85956925064912</v>
       </c>
       <c r="L40" t="n">
-        <v>1328.694621521056</v>
+        <v>106.9239730411699</v>
       </c>
       <c r="M40" t="n">
-        <v>1391.064957522879</v>
+        <v>169.2943090429936</v>
       </c>
       <c r="N40" t="n">
-        <v>1459.809792245083</v>
+        <v>238.0391437651974</v>
       </c>
       <c r="O40" t="n">
-        <v>1502.993684867346</v>
+        <v>281.2230363874599</v>
       </c>
       <c r="P40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="Q40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="R40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="S40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="T40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.88299411919</v>
+        <v>299.1123456393042</v>
       </c>
       <c r="V40" t="n">
-        <v>1520.88299411919</v>
+        <v>44.42785743341736</v>
       </c>
       <c r="W40" t="n">
-        <v>1520.88299411919</v>
+        <v>44.42785743341736</v>
       </c>
       <c r="X40" t="n">
-        <v>1520.88299411919</v>
+        <v>44.42785743341736</v>
       </c>
       <c r="Y40" t="n">
-        <v>1520.88299411919</v>
+        <v>44.42785743341736</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>677.7050712555322</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="C41" t="n">
-        <v>351.7599619560265</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="D41" t="n">
-        <v>351.7599619560265</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="E41" t="n">
-        <v>351.7599619560265</v>
+        <v>964.7975235265367</v>
       </c>
       <c r="F41" t="n">
-        <v>351.7599619560265</v>
+        <v>638.852414227031</v>
       </c>
       <c r="G41" t="n">
-        <v>25.81485265652085</v>
+        <v>312.9073049275253</v>
       </c>
       <c r="H41" t="n">
-        <v>25.81485265652085</v>
+        <v>126.585357596188</v>
       </c>
       <c r="I41" t="n">
         <v>25.81485265652085</v>
       </c>
       <c r="J41" t="n">
-        <v>87.87812306348746</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="K41" t="n">
         <v>93.02858950760782</v>
@@ -7445,16 +7445,16 @@
         <v>1290.742632826042</v>
       </c>
       <c r="V41" t="n">
-        <v>964.7975235265367</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="W41" t="n">
-        <v>677.7050712555322</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="X41" t="n">
-        <v>677.7050712555322</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="Y41" t="n">
-        <v>677.7050712555322</v>
+        <v>1290.742632826042</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>146.3765170113018</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="C42" t="n">
-        <v>146.3765170113018</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="D42" t="n">
-        <v>146.3765170113018</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="E42" t="n">
-        <v>25.81485265652085</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="F42" t="n">
-        <v>25.81485265652085</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="G42" t="n">
-        <v>25.81485265652085</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="H42" t="n">
-        <v>25.81485265652085</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="I42" t="n">
         <v>25.81485265652085</v>
@@ -7512,28 +7512,28 @@
         <v>1290.742632826042</v>
       </c>
       <c r="R42" t="n">
-        <v>1239.954329473647</v>
+        <v>1290.742632826042</v>
       </c>
       <c r="S42" t="n">
-        <v>1239.954329473647</v>
+        <v>1146.153776552873</v>
       </c>
       <c r="T42" t="n">
-        <v>1239.954329473647</v>
+        <v>950.2229979035612</v>
       </c>
       <c r="U42" t="n">
-        <v>1011.832819196847</v>
+        <v>722.1014876267608</v>
       </c>
       <c r="V42" t="n">
-        <v>776.6807109651043</v>
+        <v>486.9493793950181</v>
       </c>
       <c r="W42" t="n">
-        <v>522.4433542369027</v>
+        <v>280.7574963302208</v>
       </c>
       <c r="X42" t="n">
-        <v>314.5918540313698</v>
+        <v>72.90599612468797</v>
       </c>
       <c r="Y42" t="n">
-        <v>314.5918540313698</v>
+        <v>72.90599612468797</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="C43" t="n">
-        <v>1290.742632826042</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="D43" t="n">
-        <v>1290.742632826042</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="E43" t="n">
-        <v>1290.742632826042</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="F43" t="n">
-        <v>1190.434625634051</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G43" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H43" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I43" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J43" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="K43" t="n">
-        <v>1042.489856437387</v>
+        <v>46.25676202478617</v>
       </c>
       <c r="L43" t="n">
-        <v>1098.554260227908</v>
+        <v>102.3211658153069</v>
       </c>
       <c r="M43" t="n">
-        <v>1160.924596229732</v>
+        <v>164.6915018171306</v>
       </c>
       <c r="N43" t="n">
-        <v>1229.669430951936</v>
+        <v>233.4363365393345</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.853323574198</v>
+        <v>276.620229161597</v>
       </c>
       <c r="P43" t="n">
-        <v>1290.742632826042</v>
+        <v>294.5095384134413</v>
       </c>
       <c r="Q43" t="n">
-        <v>1290.742632826042</v>
+        <v>294.5095384134413</v>
       </c>
       <c r="R43" t="n">
-        <v>1290.742632826042</v>
+        <v>294.5095384134413</v>
       </c>
       <c r="S43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="T43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="U43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="V43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="W43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="X43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1290.742632826042</v>
+        <v>90.90615425566327</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>312.9073049275253</v>
+        <v>677.7050712555322</v>
       </c>
       <c r="C44" t="n">
-        <v>312.9073049275253</v>
+        <v>677.7050712555322</v>
       </c>
       <c r="D44" t="n">
-        <v>312.9073049275253</v>
+        <v>677.7050712555322</v>
       </c>
       <c r="E44" t="n">
-        <v>25.81485265652085</v>
+        <v>677.7050712555322</v>
       </c>
       <c r="F44" t="n">
-        <v>25.81485265652085</v>
+        <v>351.7599619560265</v>
       </c>
       <c r="G44" t="n">
         <v>25.81485265652085</v>
@@ -7646,22 +7646,22 @@
         <v>25.81485265652085</v>
       </c>
       <c r="J44" t="n">
-        <v>25.81485265652085</v>
+        <v>87.87812306348746</v>
       </c>
       <c r="K44" t="n">
-        <v>25.81485265652085</v>
+        <v>231.6333954063456</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0577415664973</v>
+        <v>446.876284316322</v>
       </c>
       <c r="M44" t="n">
-        <v>512.2263657876146</v>
+        <v>718.0449085374394</v>
       </c>
       <c r="N44" t="n">
-        <v>792.3965902255308</v>
+        <v>772.6775789080709</v>
       </c>
       <c r="O44" t="n">
-        <v>1043.618127222593</v>
+        <v>1023.899115905133</v>
       </c>
       <c r="P44" t="n">
         <v>1203.809884657496</v>
@@ -7673,25 +7673,25 @@
         <v>1290.742632826042</v>
       </c>
       <c r="S44" t="n">
-        <v>1290.742632826042</v>
+        <v>1145.712231500351</v>
       </c>
       <c r="T44" t="n">
-        <v>1290.742632826042</v>
+        <v>1145.712231500351</v>
       </c>
       <c r="U44" t="n">
-        <v>1290.742632826042</v>
+        <v>892.0597941103047</v>
       </c>
       <c r="V44" t="n">
-        <v>1290.742632826042</v>
+        <v>892.0597941103047</v>
       </c>
       <c r="W44" t="n">
-        <v>1290.742632826042</v>
+        <v>892.0597941103047</v>
       </c>
       <c r="X44" t="n">
-        <v>964.7975235265367</v>
+        <v>677.7050712555322</v>
       </c>
       <c r="Y44" t="n">
-        <v>638.852414227031</v>
+        <v>677.7050712555322</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>505.5537477769193</v>
+        <v>640.1684288009719</v>
       </c>
       <c r="C45" t="n">
-        <v>505.5537477769193</v>
+        <v>480.5212752963427</v>
       </c>
       <c r="D45" t="n">
-        <v>356.619338115668</v>
+        <v>331.5868656350914</v>
       </c>
       <c r="E45" t="n">
-        <v>356.619338115668</v>
+        <v>172.3494106296359</v>
       </c>
       <c r="F45" t="n">
-        <v>210.084780142553</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G45" t="n">
-        <v>72.90599612468797</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H45" t="n">
-        <v>72.90599612468797</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I45" t="n">
         <v>25.81485265652085</v>
@@ -7758,19 +7758,19 @@
         <v>1290.742632826042</v>
       </c>
       <c r="U45" t="n">
-        <v>1163.158549756932</v>
+        <v>1062.621122549242</v>
       </c>
       <c r="V45" t="n">
-        <v>928.0064415251888</v>
+        <v>1062.621122549242</v>
       </c>
       <c r="W45" t="n">
-        <v>673.7690847969873</v>
+        <v>808.38376582104</v>
       </c>
       <c r="X45" t="n">
-        <v>673.7690847969873</v>
+        <v>808.38376582104</v>
       </c>
       <c r="Y45" t="n">
-        <v>673.7690847969873</v>
+        <v>808.38376582104</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="C46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="D46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="E46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="F46" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="G46" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="H46" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="I46" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="J46" t="n">
-        <v>1022.047947069122</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="K46" t="n">
-        <v>1042.489856437387</v>
+        <v>46.25676202478617</v>
       </c>
       <c r="L46" t="n">
-        <v>1098.554260227908</v>
+        <v>102.3211658153069</v>
       </c>
       <c r="M46" t="n">
-        <v>1160.924596229732</v>
+        <v>164.6915018171306</v>
       </c>
       <c r="N46" t="n">
-        <v>1229.669430951936</v>
+        <v>233.4363365393345</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.853323574198</v>
+        <v>276.620229161597</v>
       </c>
       <c r="P46" t="n">
-        <v>1290.742632826042</v>
+        <v>294.5095384134413</v>
       </c>
       <c r="Q46" t="n">
-        <v>1290.742632826042</v>
+        <v>294.5095384134413</v>
       </c>
       <c r="R46" t="n">
-        <v>1290.742632826042</v>
+        <v>173.9310608664031</v>
       </c>
       <c r="S46" t="n">
-        <v>1290.742632826042</v>
+        <v>173.9310608664031</v>
       </c>
       <c r="T46" t="n">
-        <v>1290.742632826042</v>
+        <v>173.9310608664031</v>
       </c>
       <c r="U46" t="n">
-        <v>1290.742632826042</v>
+        <v>173.9310608664031</v>
       </c>
       <c r="V46" t="n">
-        <v>1290.742632826042</v>
+        <v>173.9310608664031</v>
       </c>
       <c r="W46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="X46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1168.937894567032</v>
+        <v>25.81485265652085</v>
       </c>
     </row>
   </sheetData>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>266.3980159715231</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>171.5460391182792</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>6.324764167328823</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880641</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>103.3051996980402</v>
       </c>
       <c r="T2" t="n">
         <v>214.0843260727917</v>
@@ -22604,16 +22604,16 @@
         <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
-        <v>180.9061373814264</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287045</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>222.8849795897605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.8958752011191</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22626,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>25.86237789960722</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>118.1710027014359</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22647,7 +22647,7 @@
         <v>61.59970664354544</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827335</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22671,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.29308816345811</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>21.88218769163149</v>
       </c>
       <c r="T3" t="n">
         <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>79.02279728521574</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
-        <v>58.92686411476896</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>58.83657468859585</v>
@@ -22729,7 +22729,7 @@
         <v>61.70981873818783</v>
       </c>
       <c r="K4" t="n">
-        <v>8.250600200470092</v>
+        <v>0.3148989349956715</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,7 +22741,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474421</v>
       </c>
       <c r="P4" t="n">
         <v>26.0448796648253</v>
@@ -22790,16 +22790,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>215.1479433739334</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>240.093619043383</v>
       </c>
       <c r="G5" t="n">
-        <v>413.1696173863946</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6289855973038</v>
+        <v>150.8465588989754</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>81.59093052713871</v>
+        <v>62.92774489839017</v>
       </c>
       <c r="S5" t="n">
         <v>160.4115946525719</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>330.5777830886645</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>202.9486739801406</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.4555119577252</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2938610802900712</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>5.926072289987331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2021972754605</v>
+        <v>2.965368756291809</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2126968995411</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>60.22693649632167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>19.00792621918454</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,10 +22917,10 @@
         <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8662952462544</v>
+        <v>59.08386854792602</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.90026907897595</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22963,10 +22963,10 @@
         <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>40.75804705997342</v>
+        <v>59.34653264837749</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.84535296940156</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,13 +22978,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3.210952374594768</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>22.00204076308469</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.38234319379295</v>
+        <v>60.16149777366678</v>
       </c>
       <c r="R7" t="n">
         <v>134.2701942625523</v>
@@ -23021,25 +23021,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543627</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
-        <v>342.2291500161417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637378</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399021</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166637</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023745</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.69938639163296</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,16 +23112,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>31.2823480924605</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846314</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -23194,13 +23194,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784777</v>
+        <v>18.95836326784826</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709379</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515972</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>194.5656662294572</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>84.19038753520084</v>
       </c>
       <c r="G11" t="n">
-        <v>412.6300958433191</v>
+        <v>89.94443763680846</v>
       </c>
       <c r="H11" t="n">
-        <v>312.1036105942814</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>107.438871517719</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>47.70021039691937</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>148.1172474897379</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.3963606457567</v>
       </c>
       <c r="U11" t="n">
-        <v>51.43847415170046</v>
+        <v>251.1318415740912</v>
       </c>
       <c r="V11" t="n">
-        <v>5.066600263624423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>26.55531051090253</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,25 +23337,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.9135278007857</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>98.42475749939229</v>
       </c>
       <c r="I12" t="n">
-        <v>50.28809712703553</v>
+        <v>50.28809712703552</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.8947258302461</v>
+        <v>56.89472583024607</v>
       </c>
       <c r="S12" t="n">
-        <v>46.24863666278952</v>
+        <v>145.1217458851112</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.4008680629421</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8473038334469</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>118.9104873221543</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23434,10 @@
         <v>151.5682612891573</v>
       </c>
       <c r="I13" t="n">
-        <v>20.00411315775901</v>
+        <v>119.3976341194077</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>42.23636975781999</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.3885090810302</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>203.1238242072717</v>
+        <v>184.8824425688329</v>
       </c>
       <c r="T13" t="n">
         <v>222.8232087814587</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>47.7002103969194</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>148.1172474897379</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3066744715536</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.066600263624423</v>
+        <v>5.066600263624309</v>
       </c>
       <c r="W14" t="n">
-        <v>26.55531051090253</v>
+        <v>77.99378466260248</v>
       </c>
       <c r="X14" t="n">
-        <v>47.04544247195855</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23583,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.9135278007857</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.42475749939229</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.28809712703553</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.8947258302461</v>
+        <v>56.89472583024607</v>
       </c>
       <c r="S15" t="n">
-        <v>98.37358747726131</v>
+        <v>145.1217458851112</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.4008680629421</v>
       </c>
       <c r="U15" t="n">
         <v>225.8473038334469</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>188.5465683498051</v>
       </c>
     </row>
     <row r="16">
@@ -23674,7 +23674,7 @@
         <v>119.3976341194077</v>
       </c>
       <c r="J16" t="n">
-        <v>42.23636975782</v>
+        <v>42.23636975781999</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.1172396339466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>123.3885090810302</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.37669385385638</v>
+        <v>184.8824425688329</v>
       </c>
       <c r="T16" t="n">
         <v>222.8232087814587</v>
@@ -23738,13 +23738,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>111.8315493425506</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>26.65529721191399</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>32.21024033920219</v>
+        <v>314.8637097440824</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.5800973124346</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5247698656736</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1159130161457</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8069961776864</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.39588629735442</v>
       </c>
       <c r="I18" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>50.28042031887094</v>
       </c>
       <c r="S18" t="n">
-        <v>52.73496509145653</v>
+        <v>143.142967710438</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8402951740324</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>240.3115402360871</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>43.63853279479213</v>
       </c>
       <c r="R19" t="n">
-        <v>119.3726927715678</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>201.5673503162002</v>
@@ -23944,13 +23944,13 @@
         <v>222.441600680883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487656703539</v>
+        <v>139.6137195425704</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>20.51525943723982</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>2.513093133683128</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>1.709621542464333</v>
       </c>
       <c r="F20" t="n">
-        <v>294.8335048180114</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>32.21024033920219</v>
+        <v>412.4309888689996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>310.0645062935329</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>99.76279989027044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>28.86178188527687</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5800973124346</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>251.1159130161457</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>68.56507582521094</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.92663445021404</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.39588629735442</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>225.8402951740324</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.07106238121391</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>20.51525943723971</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>2.513093133683128</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,13 +24215,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>292.1137436404269</v>
       </c>
       <c r="G23" t="n">
         <v>32.21024033920219</v>
       </c>
       <c r="H23" t="n">
-        <v>138.9913684634605</v>
+        <v>310.0645062935329</v>
       </c>
       <c r="I23" t="n">
         <v>99.76279989027044</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>35.19305692132858</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.5800973124346</v>
       </c>
       <c r="T23" t="n">
         <v>210.5247698656736</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1159130161457</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.017190126256139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.74624034173223</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.8069961776864</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.39588629735442</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,19 +24339,19 @@
         <v>193.9714708628182</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8402951740324</v>
+        <v>208.7547267355163</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.61177497084438</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7028117792804</v>
       </c>
       <c r="H25" t="n">
         <v>150.7741916671083</v>
@@ -24409,10 +24409,10 @@
         <v>43.63853279479213</v>
       </c>
       <c r="R25" t="n">
-        <v>119.3726927715678</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.2624231961294</v>
+        <v>201.5673503162002</v>
       </c>
       <c r="T25" t="n">
         <v>222.441600680883</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.513093133683185</v>
+        <v>2.513093133683128</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>1.709621542464333</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5800973124346</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5247698656736</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1159130161457</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>253.0469117508744</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>373.7992550745673</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.57731234051084</v>
+        <v>10.04397343472351</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>97.39588629735442</v>
       </c>
       <c r="I27" t="n">
         <v>46.62023203348545</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.28042031887094</v>
       </c>
       <c r="S27" t="n">
-        <v>143.142967710438</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>43.63853279479213</v>
       </c>
       <c r="R28" t="n">
         <v>119.3726927715678</v>
@@ -24655,19 +24655,19 @@
         <v>222.441600680883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2487656703539</v>
+        <v>272.3786700948306</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9251026365728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>2.513093133683014</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>1.709621542464333</v>
+        <v>1.70962154246422</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>57.02975367787582</v>
       </c>
       <c r="G29" t="n">
-        <v>32.21024033920219</v>
+        <v>412.4309888689996</v>
       </c>
       <c r="H29" t="n">
-        <v>271.9385496462378</v>
+        <v>310.0645062935329</v>
       </c>
       <c r="I29" t="n">
         <v>99.76279989027044</v>
@@ -24737,10 +24737,10 @@
         <v>251.1159130161457</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,22 +24756,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>72.63598482802131</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.8069961776864</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>97.39588629735442</v>
@@ -24810,22 +24810,22 @@
         <v>143.142967710438</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8402951740324</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>104.727490517755</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24853,13 +24853,13 @@
         <v>166.7028117792804</v>
       </c>
       <c r="H31" t="n">
-        <v>81.03872179109308</v>
+        <v>150.7741916671083</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116.711762637058</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>35.92197359148581</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>43.63853279479213</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3726927715678</v>
+        <v>54.93230418841685</v>
       </c>
       <c r="S31" t="n">
-        <v>201.5673503162002</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>222.441600680883</v>
@@ -24920,13 +24920,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>215.5144797101737</v>
       </c>
       <c r="F32" t="n">
-        <v>26.65529721191399</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.4309888689996</v>
@@ -24965,25 +24965,25 @@
         <v>35.19305692132858</v>
       </c>
       <c r="S32" t="n">
-        <v>8.716784021734327</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1159130161457</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.017190126256139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>49.51855334905304</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.8069961776864</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>97.39588629735442</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.28042031887094</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8402951740324</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0.9447868932852543</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,13 +25090,13 @@
         <v>166.7028117792804</v>
       </c>
       <c r="H34" t="n">
-        <v>37.40018899630095</v>
+        <v>150.7741916671083</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>116.711762637058</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>35.92197359148581</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>119.3726927715678</v>
       </c>
       <c r="S34" t="n">
-        <v>201.5673503162002</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>222.441600680883</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>154.1442647689438</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>377.0809433689997</v>
+        <v>2.513093133683128</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>32.08407800842627</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>6.017190126256139</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>22.62834896961139</v>
       </c>
       <c r="E36" t="n">
-        <v>149.1767548329493</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>50.28042031887094</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.142967710438</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8402951740324</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25357,13 +25357,13 @@
         <v>43.63853279479213</v>
       </c>
       <c r="R37" t="n">
-        <v>54.93230418841682</v>
+        <v>119.3726927715678</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>158.0012120977321</v>
       </c>
       <c r="T37" t="n">
-        <v>222.441600680883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2487656703539</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.349842690530522</v>
+        <v>2.513093133683128</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>36.54228691588776</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.017190126256025</v>
+        <v>6.017190126256139</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>160.717111413613</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,16 +25518,16 @@
         <v>50.28042031887094</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.142967710438</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>193.9714708628182</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8402951740324</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>153.4956864848729</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>153.3767255231046</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25558,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>30.18750079068816</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.7028117792804</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7741916671083</v>
       </c>
       <c r="I40" t="n">
         <v>116.711762637058</v>
@@ -25606,7 +25606,7 @@
         <v>286.2487656703539</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>42.58723356449696</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>59.24471186575119</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>84.19038753520084</v>
       </c>
       <c r="G41" t="n">
         <v>89.74533066248904</v>
       </c>
       <c r="H41" t="n">
-        <v>310.0645062935329</v>
+        <v>125.6057784355089</v>
       </c>
       <c r="I41" t="n">
-        <v>99.76279989027044</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>251.1159130161457</v>
       </c>
       <c r="V41" t="n">
-        <v>5.066600263624309</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>65.01944096911859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>38.2890327441678</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25725,7 +25725,7 @@
         <v>97.39588629735442</v>
       </c>
       <c r="I42" t="n">
-        <v>46.62023203348545</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.28042031887094</v>
       </c>
       <c r="S42" t="n">
-        <v>143.142967710438</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>193.9714708628182</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>47.56501892677034</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>102.8064325154769</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>46.11612090286015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7028117792804</v>
       </c>
       <c r="H43" t="n">
         <v>150.7741916671083</v>
@@ -25834,7 +25834,7 @@
         <v>119.3726927715678</v>
       </c>
       <c r="S43" t="n">
-        <v>201.5673503162002</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>222.441600680883</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.04818345696998</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>97.70884232396736</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>84.19038753520084</v>
       </c>
       <c r="G44" t="n">
-        <v>412.4309888689996</v>
+        <v>89.74533066248904</v>
       </c>
       <c r="H44" t="n">
         <v>310.0645062935329</v>
@@ -25913,13 +25913,13 @@
         <v>35.19305692132858</v>
       </c>
       <c r="S44" t="n">
-        <v>143.5800973124346</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.5247698656736</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1159130161457</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>47.04544247195844</v>
+        <v>157.5199250522443</v>
       </c>
       <c r="Y44" t="n">
-        <v>63.55228044954299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25944,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>14.65781701873277</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8069961776864</v>
       </c>
       <c r="H45" t="n">
         <v>97.39588629735442</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>46.62023203348545</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,10 +25998,10 @@
         <v>193.9714708628182</v>
       </c>
       <c r="U45" t="n">
-        <v>99.5320529356129</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7028117792804</v>
@@ -26068,7 +26068,7 @@
         <v>43.63853279479213</v>
       </c>
       <c r="R46" t="n">
-        <v>119.3726927715678</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>201.5673503162002</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>165.9363074601708</v>
+        <v>139.8879522088075</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>402256.5418769752</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>417888.8482179075</v>
+        <v>417888.8482179077</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337679</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>524079.6881198196</v>
+        <v>524079.6881198197</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>562722.910842213</v>
+        <v>562722.9108422131</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>562722.910842213</v>
+        <v>562722.9108422131</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>562722.9108422128</v>
+        <v>562722.9108422131</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>562722.9108422131</v>
+        <v>562722.910842213</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>539617.6710082788</v>
+        <v>539617.671008279</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>539617.6710082788</v>
+        <v>539617.671008279</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>139242.6491112605</v>
       </c>
       <c r="C2" t="n">
-        <v>144653.8320754294</v>
+        <v>144653.8320754295</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963042</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
         <v>181412.1997337836</v>
@@ -26326,22 +26326,22 @@
         <v>181412.1997337836</v>
       </c>
       <c r="G2" t="n">
+        <v>194788.6999069197</v>
+      </c>
+      <c r="H2" t="n">
         <v>194788.6999069198</v>
       </c>
-      <c r="H2" t="n">
-        <v>194788.6999069197</v>
-      </c>
       <c r="I2" t="n">
-        <v>194788.6999069197</v>
+        <v>194788.6999069198</v>
       </c>
       <c r="J2" t="n">
-        <v>194788.6999069197</v>
+        <v>194788.6999069198</v>
       </c>
       <c r="K2" t="n">
         <v>194788.6999069198</v>
       </c>
       <c r="L2" t="n">
-        <v>194788.6999069197</v>
+        <v>194788.6999069198</v>
       </c>
       <c r="M2" t="n">
         <v>194788.6999069197</v>
@@ -26369,16 +26369,16 @@
         <v>23320.45473340675</v>
       </c>
       <c r="D3" t="n">
-        <v>21735.84085679102</v>
+        <v>21735.84085679063</v>
       </c>
       <c r="E3" t="n">
-        <v>133831.5015959601</v>
+        <v>133831.5015959606</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54276.77241174612</v>
+        <v>54276.77241174599</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>5130.967102136668</v>
+        <v>5130.967102136653</v>
       </c>
       <c r="L3" t="n">
-        <v>5249.907226004205</v>
+        <v>5249.907226004187</v>
       </c>
       <c r="M3" t="n">
-        <v>33682.43034349958</v>
+        <v>33682.43034349969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>122.1898065383438</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723343</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>230.4448032987279</v>
+        <v>230.4448032987281</v>
       </c>
       <c r="F4" t="n">
-        <v>230.4448032987279</v>
+        <v>230.444803298728</v>
       </c>
       <c r="G4" t="n">
-        <v>270.7918953675811</v>
+        <v>270.7918953675812</v>
       </c>
       <c r="H4" t="n">
         <v>270.7918953675811</v>
@@ -26451,7 +26451,7 @@
         <v>270.7918953675812</v>
       </c>
       <c r="N4" t="n">
-        <v>270.7918953675812</v>
+        <v>270.7918953675811</v>
       </c>
       <c r="O4" t="n">
         <v>243.5906994527996</v>
@@ -26473,13 +26473,13 @@
         <v>55335.34872138574</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>34112.35564479612</v>
+        <v>34112.35564479613</v>
       </c>
       <c r="F5" t="n">
-        <v>34112.35564479612</v>
+        <v>34112.35564479613</v>
       </c>
       <c r="G5" t="n">
         <v>38690.19648144249</v>
@@ -26491,7 +26491,7 @@
         <v>38690.19648144249</v>
       </c>
       <c r="J5" t="n">
-        <v>38690.19648144248</v>
+        <v>38690.19648144249</v>
       </c>
       <c r="K5" t="n">
         <v>38690.19648144249</v>
@@ -26522,25 +26522,25 @@
         <v>-457239.0977908509</v>
       </c>
       <c r="C6" t="n">
-        <v>65875.83881409861</v>
+        <v>65875.83881409865</v>
       </c>
       <c r="D6" t="n">
-        <v>71116.23870982724</v>
+        <v>71116.23870982748</v>
       </c>
       <c r="E6" t="n">
-        <v>13237.89768972861</v>
+        <v>13237.89768972812</v>
       </c>
       <c r="F6" t="n">
         <v>147069.3992856888</v>
       </c>
       <c r="G6" t="n">
-        <v>101550.9391183636</v>
+        <v>101550.9391183637</v>
       </c>
       <c r="H6" t="n">
-        <v>155827.7115301096</v>
+        <v>155827.7115301097</v>
       </c>
       <c r="I6" t="n">
-        <v>155827.7115301097</v>
+        <v>155827.7115301098</v>
       </c>
       <c r="J6" t="n">
         <v>117406.3050239756</v>
@@ -26552,7 +26552,7 @@
         <v>150577.8043041055</v>
       </c>
       <c r="M6" t="n">
-        <v>122145.2811866101</v>
+        <v>122145.28118661</v>
       </c>
       <c r="N6" t="n">
         <v>155827.7115301097</v>
@@ -26741,13 +26741,13 @@
         <v>530.6136320241914</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>664.8196158642335</v>
+        <v>664.8196158642336</v>
       </c>
       <c r="F3" t="n">
-        <v>664.8196158642335</v>
+        <v>664.8196158642336</v>
       </c>
       <c r="G3" t="n">
         <v>714.3474757261836</v>
@@ -26793,13 +26793,13 @@
         <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6856582065105</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="F4" t="n">
-        <v>322.6856582065105</v>
+        <v>322.6856582065106</v>
       </c>
       <c r="G4" t="n">
         <v>380.2207485297974</v>
@@ -26814,7 +26814,7 @@
         <v>380.2207485297974</v>
       </c>
       <c r="K4" t="n">
-        <v>380.2207485297974</v>
+        <v>380.2207485297976</v>
       </c>
       <c r="L4" t="n">
         <v>380.2207485297974</v>
@@ -26823,7 +26823,7 @@
         <v>380.2207485297974</v>
       </c>
       <c r="N4" t="n">
-        <v>380.2207485297976</v>
+        <v>380.2207485297974</v>
       </c>
       <c r="O4" t="n">
         <v>322.6856582065106</v>
@@ -26963,16 +26963,16 @@
         <v>18.53676886697065</v>
       </c>
       <c r="D3" t="n">
-        <v>17.85630888871356</v>
+        <v>17.85630888871322</v>
       </c>
       <c r="E3" t="n">
-        <v>116.3496749513286</v>
+        <v>116.349674951329</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.52785986195011</v>
+        <v>49.52785986194999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>19.93630560961989</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7431604679918</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="E4" t="n">
-        <v>135.1600710401903</v>
+        <v>135.1600710401907</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.53509032328697</v>
+        <v>57.53509032328685</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>19.93630560961995</v>
+        <v>19.93630560961989</v>
       </c>
       <c r="L4" t="n">
-        <v>20.74316046799058</v>
+        <v>20.74316046799051</v>
       </c>
       <c r="M4" t="n">
-        <v>135.1600710401903</v>
+        <v>135.1600710401907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>19.93630560961989</v>
       </c>
       <c r="L4" t="n">
-        <v>20.7431604679918</v>
+        <v>20.74316046799146</v>
       </c>
       <c r="M4" t="n">
-        <v>135.1600710401903</v>
+        <v>135.1600710401907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.53509032328697</v>
+        <v>57.53509032328685</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31130,13 +31130,13 @@
         <v>104.0627142383933</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986735</v>
+        <v>138.4613654251941</v>
       </c>
       <c r="L3" t="n">
         <v>239.1543878358322</v>
       </c>
       <c r="M3" t="n">
-        <v>239.6835023472058</v>
+        <v>279.0818904206852</v>
       </c>
       <c r="N3" t="n">
         <v>278.1878331720418</v>
@@ -31373,10 +31373,10 @@
         <v>247.8115835222415</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1844294531842</v>
+        <v>268.3941667076857</v>
       </c>
       <c r="N6" t="n">
-        <v>270.3413096326971</v>
+        <v>296.8382808056842</v>
       </c>
       <c r="O6" t="n">
         <v>271.549034871852</v>
@@ -31385,7 +31385,7 @@
         <v>217.9420406704646</v>
       </c>
       <c r="Q6" t="n">
-        <v>145.6884825135101</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>70.86194882013638</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31689,31 +31689,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31762,19 +31762,19 @@
         <v>226.8371210932945</v>
       </c>
       <c r="K11" t="n">
-        <v>339.9700430612663</v>
+        <v>339.9700430612664</v>
       </c>
       <c r="L11" t="n">
         <v>421.7629006251057</v>
       </c>
       <c r="M11" t="n">
-        <v>469.2924919562636</v>
+        <v>469.2924919562637</v>
       </c>
       <c r="N11" t="n">
-        <v>476.8861351063109</v>
+        <v>476.886135106311</v>
       </c>
       <c r="O11" t="n">
-        <v>450.3100544821904</v>
+        <v>450.3100544821905</v>
       </c>
       <c r="P11" t="n">
         <v>384.3292132092326</v>
@@ -31832,10 +31832,10 @@
         <v>1.429989362424955</v>
       </c>
       <c r="H12" t="n">
-        <v>13.81068673710417</v>
+        <v>13.81068673710418</v>
       </c>
       <c r="I12" t="n">
-        <v>49.23428287296447</v>
+        <v>49.23428287296448</v>
       </c>
       <c r="J12" t="n">
         <v>135.1026353333156</v>
@@ -31847,31 +31847,31 @@
         <v>310.4895762581027</v>
       </c>
       <c r="M12" t="n">
-        <v>362.3266906460072</v>
+        <v>362.3266906460073</v>
       </c>
       <c r="N12" t="n">
-        <v>371.9164000106904</v>
+        <v>371.9164000106905</v>
       </c>
       <c r="O12" t="n">
-        <v>340.2308462432743</v>
+        <v>340.2308462432744</v>
       </c>
       <c r="P12" t="n">
-        <v>273.0652493914811</v>
+        <v>273.0652493914812</v>
       </c>
       <c r="Q12" t="n">
-        <v>182.5368877369118</v>
+        <v>182.5368877369119</v>
       </c>
       <c r="R12" t="n">
-        <v>88.78477813371785</v>
+        <v>88.78477813371788</v>
       </c>
       <c r="S12" t="n">
         <v>26.56142521872667</v>
       </c>
       <c r="T12" t="n">
-        <v>5.763860631879531</v>
+        <v>5.763860631879533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09407824752795761</v>
+        <v>0.09407824752795763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>10.65891121828231</v>
       </c>
       <c r="I13" t="n">
-        <v>36.05284080785057</v>
+        <v>36.05284080785058</v>
       </c>
       <c r="J13" t="n">
-        <v>84.75905168157611</v>
+        <v>84.75905168157612</v>
       </c>
       <c r="K13" t="n">
         <v>139.2851588646705</v>
@@ -31935,19 +31935,19 @@
         <v>169.4527112697886</v>
       </c>
       <c r="P13" t="n">
-        <v>144.9960683517665</v>
+        <v>144.9960683517666</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.3877619954992</v>
+        <v>100.3877619954993</v>
       </c>
       <c r="R13" t="n">
         <v>53.90488229613931</v>
       </c>
       <c r="S13" t="n">
-        <v>20.89277382970057</v>
+        <v>20.89277382970058</v>
       </c>
       <c r="T13" t="n">
-        <v>5.122380646822781</v>
+        <v>5.122380646822782</v>
       </c>
       <c r="U13" t="n">
         <v>0.06539209336369517</v>
@@ -31999,25 +31999,25 @@
         <v>226.8371210932945</v>
       </c>
       <c r="K14" t="n">
-        <v>339.9700430612663</v>
+        <v>339.9700430612664</v>
       </c>
       <c r="L14" t="n">
         <v>421.7629006251057</v>
       </c>
       <c r="M14" t="n">
-        <v>469.2924919562636</v>
+        <v>469.2924919562637</v>
       </c>
       <c r="N14" t="n">
-        <v>476.8861351063109</v>
+        <v>476.886135106311</v>
       </c>
       <c r="O14" t="n">
-        <v>450.3100544821904</v>
+        <v>450.3100544821905</v>
       </c>
       <c r="P14" t="n">
         <v>384.3292132092326</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.6152333373216</v>
+        <v>288.6152333373209</v>
       </c>
       <c r="R14" t="n">
         <v>167.8853274172127</v>
@@ -32069,10 +32069,10 @@
         <v>1.429989362424955</v>
       </c>
       <c r="H15" t="n">
-        <v>13.81068673710417</v>
+        <v>13.81068673710418</v>
       </c>
       <c r="I15" t="n">
-        <v>49.23428287296447</v>
+        <v>49.23428287296448</v>
       </c>
       <c r="J15" t="n">
         <v>135.1026353333156</v>
@@ -32084,31 +32084,31 @@
         <v>310.4895762581027</v>
       </c>
       <c r="M15" t="n">
-        <v>362.3266906460072</v>
+        <v>362.3266906460073</v>
       </c>
       <c r="N15" t="n">
-        <v>371.9164000106904</v>
+        <v>371.9164000106905</v>
       </c>
       <c r="O15" t="n">
-        <v>340.2308462432743</v>
+        <v>340.2308462432744</v>
       </c>
       <c r="P15" t="n">
-        <v>273.0652493914811</v>
+        <v>273.0652493914812</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.5368877369118</v>
+        <v>182.5368877369119</v>
       </c>
       <c r="R15" t="n">
-        <v>88.78477813371785</v>
+        <v>88.78477813371788</v>
       </c>
       <c r="S15" t="n">
         <v>26.56142521872667</v>
       </c>
       <c r="T15" t="n">
-        <v>5.763860631879531</v>
+        <v>5.763860631879533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09407824752795761</v>
+        <v>0.09407824752795763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>10.65891121828231</v>
       </c>
       <c r="I16" t="n">
-        <v>36.05284080785057</v>
+        <v>36.05284080785058</v>
       </c>
       <c r="J16" t="n">
-        <v>84.75905168157611</v>
+        <v>84.75905168157612</v>
       </c>
       <c r="K16" t="n">
         <v>139.2851588646705</v>
@@ -32172,19 +32172,19 @@
         <v>169.4527112697886</v>
       </c>
       <c r="P16" t="n">
-        <v>144.9960683517665</v>
+        <v>144.9960683517666</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.3877619954992</v>
+        <v>100.3877619954993</v>
       </c>
       <c r="R16" t="n">
         <v>53.90488229613931</v>
       </c>
       <c r="S16" t="n">
-        <v>20.89277382970057</v>
+        <v>20.89277382970058</v>
       </c>
       <c r="T16" t="n">
-        <v>5.122380646822781</v>
+        <v>5.122380646822782</v>
       </c>
       <c r="U16" t="n">
         <v>0.06539209336369517</v>
@@ -32251,7 +32251,7 @@
         <v>483.8573397015478</v>
       </c>
       <c r="P17" t="n">
-        <v>412.9610450000796</v>
+        <v>412.9610450000798</v>
       </c>
       <c r="Q17" t="n">
         <v>310.1165466103554</v>
@@ -32488,10 +32488,10 @@
         <v>483.8573397015478</v>
       </c>
       <c r="P20" t="n">
-        <v>412.9610450000796</v>
+        <v>412.9610450000798</v>
       </c>
       <c r="Q20" t="n">
-        <v>310.1165466103554</v>
+        <v>310.1165466103552</v>
       </c>
       <c r="R20" t="n">
         <v>180.3924808928035</v>
@@ -33910,7 +33910,7 @@
         <v>483.8573397015478</v>
       </c>
       <c r="P38" t="n">
-        <v>412.9610450000798</v>
+        <v>412.9610450000796</v>
       </c>
       <c r="Q38" t="n">
         <v>310.1165466103554</v>
@@ -34129,10 +34129,10 @@
         <v>110.7130896801355</v>
       </c>
       <c r="J41" t="n">
-        <v>243.7360766549354</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K41" t="n">
-        <v>225.2923424026779</v>
+        <v>287.982514530927</v>
       </c>
       <c r="L41" t="n">
         <v>453.183474475014</v>
@@ -34366,10 +34366,10 @@
         <v>110.7130896801355</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>243.7360766549354</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>365.2971968458473</v>
       </c>
       <c r="L44" t="n">
         <v>453.183474475014</v>
@@ -34378,13 +34378,13 @@
         <v>504.2539344607245</v>
       </c>
       <c r="N44" t="n">
-        <v>512.4132903015568</v>
+        <v>284.5975791224814</v>
       </c>
       <c r="O44" t="n">
         <v>483.8573397015478</v>
       </c>
       <c r="P44" t="n">
-        <v>393.0428517501205</v>
+        <v>412.9610450000798</v>
       </c>
       <c r="Q44" t="n">
         <v>310.1165466103554</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431455</v>
+        <v>0.6199264508351642</v>
       </c>
       <c r="L3" t="n">
         <v>100.600008055958</v>
       </c>
       <c r="M3" t="n">
-        <v>97.5494684251875</v>
+        <v>136.9478564986669</v>
       </c>
       <c r="N3" t="n">
         <v>146.8461210887085</v>
@@ -35021,10 +35021,10 @@
         <v>109.2572037423673</v>
       </c>
       <c r="M6" t="n">
-        <v>147.0503955311659</v>
+        <v>126.2601327856674</v>
       </c>
       <c r="N6" t="n">
-        <v>138.9995975493638</v>
+        <v>165.4965687223509</v>
       </c>
       <c r="O6" t="n">
         <v>128.9527904274075</v>
@@ -35033,7 +35033,7 @@
         <v>83.96763325613435</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.706708427488564</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646086</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061163</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520835</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.79121656660817</v>
+        <v>45.7912165666082</v>
       </c>
       <c r="K11" t="n">
         <v>119.8801920162858</v>
       </c>
       <c r="L11" t="n">
-        <v>185.9964856551184</v>
+        <v>185.9964856551185</v>
       </c>
       <c r="M11" t="n">
-        <v>238.9462587289909</v>
+        <v>238.946258728991</v>
       </c>
       <c r="N11" t="n">
-        <v>247.47307150972</v>
+        <v>247.4730715097201</v>
       </c>
       <c r="O11" t="n">
-        <v>220.2118430605037</v>
+        <v>220.2118430605038</v>
       </c>
       <c r="P11" t="n">
-        <v>153.096217453963</v>
+        <v>153.0962174539631</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.30954346287209</v>
+        <v>66.30954346287214</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8.265008666648924</v>
+        <v>8.265008666648953</v>
       </c>
       <c r="K12" t="n">
-        <v>93.07048364142861</v>
+        <v>93.07048364142864</v>
       </c>
       <c r="L12" t="n">
         <v>171.9351964782285</v>
@@ -35498,7 +35498,7 @@
         <v>220.1926567239889</v>
       </c>
       <c r="N12" t="n">
-        <v>240.5746879273571</v>
+        <v>240.5746879273572</v>
       </c>
       <c r="O12" t="n">
         <v>197.6346017988299</v>
@@ -35507,7 +35507,7 @@
         <v>139.0908419771509</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.55511365089032</v>
+        <v>42.55511365089035</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>10.27190069413513</v>
+        <v>10.27190069413516</v>
       </c>
       <c r="L13" t="n">
-        <v>43.35237286373999</v>
+        <v>43.35237286374002</v>
       </c>
       <c r="M13" t="n">
-        <v>49.00019369742733</v>
+        <v>49.00019369742736</v>
       </c>
       <c r="N13" t="n">
-        <v>55.7719734666135</v>
+        <v>55.77197346661353</v>
       </c>
       <c r="O13" t="n">
-        <v>30.99617281794582</v>
+        <v>30.99617281794585</v>
       </c>
       <c r="P13" t="n">
-        <v>7.26806430261891</v>
+        <v>7.268064302618939</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.79121656660817</v>
+        <v>45.7912165666082</v>
       </c>
       <c r="K14" t="n">
         <v>119.8801920162858</v>
       </c>
       <c r="L14" t="n">
-        <v>185.9964856551184</v>
+        <v>185.9964856551185</v>
       </c>
       <c r="M14" t="n">
-        <v>238.9462587289909</v>
+        <v>238.946258728991</v>
       </c>
       <c r="N14" t="n">
-        <v>247.47307150972</v>
+        <v>247.4730715097201</v>
       </c>
       <c r="O14" t="n">
-        <v>220.2118430605037</v>
+        <v>220.2118430605038</v>
       </c>
       <c r="P14" t="n">
-        <v>153.096217453963</v>
+        <v>153.0962174539631</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.30954346287209</v>
+        <v>66.30954346287145</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.265008666648924</v>
+        <v>8.265008666648953</v>
       </c>
       <c r="K15" t="n">
-        <v>93.07048364142861</v>
+        <v>93.07048364142864</v>
       </c>
       <c r="L15" t="n">
         <v>171.9351964782285</v>
@@ -35735,7 +35735,7 @@
         <v>220.1926567239889</v>
       </c>
       <c r="N15" t="n">
-        <v>240.5746879273571</v>
+        <v>240.5746879273572</v>
       </c>
       <c r="O15" t="n">
         <v>197.6346017988299</v>
@@ -35744,7 +35744,7 @@
         <v>139.0908419771509</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.55511365089032</v>
+        <v>42.55511365089035</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>10.27190069413513</v>
+        <v>10.27190069413516</v>
       </c>
       <c r="L16" t="n">
-        <v>43.35237286373999</v>
+        <v>43.35237286374002</v>
       </c>
       <c r="M16" t="n">
-        <v>49.00019369742733</v>
+        <v>49.00019369742736</v>
       </c>
       <c r="N16" t="n">
-        <v>55.7719734666135</v>
+        <v>55.77197346661353</v>
       </c>
       <c r="O16" t="n">
-        <v>30.99617281794582</v>
+        <v>30.99617281794585</v>
       </c>
       <c r="P16" t="n">
-        <v>7.26806430261891</v>
+        <v>7.268064302618939</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>253.7591282798611</v>
       </c>
       <c r="P17" t="n">
-        <v>181.7280492448101</v>
+        <v>181.7280492448103</v>
       </c>
       <c r="Q17" t="n">
         <v>87.8108567359059</v>
@@ -36136,10 +36136,10 @@
         <v>253.7591282798611</v>
       </c>
       <c r="P20" t="n">
-        <v>181.7280492448101</v>
+        <v>181.7280492448103</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.8108567359059</v>
+        <v>87.81085673590566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>253.7591282798611</v>
       </c>
       <c r="P38" t="n">
-        <v>181.7280492448103</v>
+        <v>181.7280492448101</v>
       </c>
       <c r="Q38" t="n">
         <v>87.8108567359059</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>62.69017212824912</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.202491357697328</v>
+        <v>67.89266348594643</v>
       </c>
       <c r="L41" t="n">
         <v>217.4170595050267</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>62.69017212824912</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>145.2073458008668</v>
       </c>
       <c r="L44" t="n">
         <v>217.4170595050267</v>
@@ -38026,13 +38026,13 @@
         <v>273.9077012334518</v>
       </c>
       <c r="N44" t="n">
-        <v>283.0002267049659</v>
+        <v>55.18451552589046</v>
       </c>
       <c r="O44" t="n">
         <v>253.7591282798611</v>
       </c>
       <c r="P44" t="n">
-        <v>161.809855994851</v>
+        <v>181.7280492448103</v>
       </c>
       <c r="Q44" t="n">
         <v>87.8108567359059</v>
